--- a/biology/Microbiologie/Violet_de_gentiane/Violet_de_gentiane.xlsx
+++ b/biology/Microbiologie/Violet_de_gentiane/Violet_de_gentiane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le nom violet de gentiane est le nom commun donné au mélange de méthyl violets 2B, 6B et 10B selon que la molécule contient 4, 5 ou 6 groupements méthyle. On appelle parfois cristal violet ou violet de Paris le méthyl violet 10B, tandis que le méthyl violet 2B est connu en tant que violet de méthyle. C'est un colorant de couleur violette, d'autant plus foncée que le nombre de groupements  méthyle augmente, utilisé surtout en microbiologie :
@@ -514,7 +526,9 @@
           <t>Structure chimique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Formules brutes : 
 pour le méthyl violet 2B : 
@@ -583,7 +597,9 @@
           <t>Coloration de Gram</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le violet de gentiane colore le cytoplasme de la bactérie. Le lugol (I3−) est un fixateur du violet de gentiane. Toutes les bactéries sont colorées par le violet de gentiane mais seulement les bactéries à Gram négatif seront décolorées par l'alcool et devront être recolorées (par la fuchsine ou la safranine). En effet, l'enveloppe des bactéries à gram négatif contient moins de peptidoglycane et se décolore plus aisément à l'alcool. 
 On utilise une solution phéniquée dont la composition est la suivante :
@@ -615,7 +631,9 @@
           <t>Indicateur coloré de pH</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le méthyl violet 2B (ou violet de méthyle) et le méthyl violet 10B (ou violet de cristal) sont également des indicateurs colorés, en effet, ils sont jaunes à un pH inférieur à 1,6 et 1,8 et violet au-delà.
 </t>
